--- a/docs/research_programmes_20120224.xlsx
+++ b/docs/research_programmes_20120224.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">research_programmes_20120224!$A$1:$K$581</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2128,10 +2128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M581"/>
+  <dimension ref="A1:L581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M561"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:L561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,7 +2149,7 @@
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -2429,15 +2429,11 @@
         <v>26</v>
       </c>
       <c r="L8" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A8,"','",C8,"','",C8,"');")</f>
-        <v>insert into program(code, title, description) values ('DDNBENSING09','EngD Biochemical Engineering','EngD Biochemical Engineering');</v>
-      </c>
-      <c r="M8" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F8,"','",G8,"','",G8,"',(select id from program where code='",A8,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('BENGN_ENG','Biochemical Engineering','Biochemical Engineering',(select id from program where code='DDNBENSING09'));</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A8,"','",C8,"');")</f>
+        <v>insert into program(code, title) values ('DDNBENSING09','EngD Biochemical Engineering');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2472,7 +2468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2507,7 +2503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -2542,7 +2538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2577,7 +2573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2612,7 +2608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2647,7 +2643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2682,7 +2678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -4957,7 +4953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -4992,7 +4988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -5027,7 +5023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>146</v>
       </c>
@@ -5062,7 +5058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>401</v>
       </c>
@@ -5097,15 +5093,11 @@
         <v>26</v>
       </c>
       <c r="L84" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A84,"','",C84,"','",C84,"');")</f>
-        <v>insert into program(code, title, description) values ('DDNENVSENG01','EngD Environmental Engineering Science','EngD Environmental Engineering Science');</v>
-      </c>
-      <c r="M84" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F84,"','",G84,"','",G84,"',(select id from program where code='",A84,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('CIVLG_ENG','Civil, Environmental and Geomatic Engineering','Civil, Environmental and Geomatic Engineering',(select id from program where code='DDNENVSENG01'));</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A84,"','",C84,"');")</f>
+        <v>insert into program(code, title) values ('DDNENVSENG01','EngD Environmental Engineering Science');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>150</v>
       </c>
@@ -5140,7 +5132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -5175,7 +5167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -5210,7 +5202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>158</v>
       </c>
@@ -5245,7 +5237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -5280,7 +5272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>158</v>
       </c>
@@ -5315,7 +5307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>162</v>
       </c>
@@ -5350,7 +5342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>162</v>
       </c>
@@ -5385,7 +5377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>162</v>
       </c>
@@ -5420,7 +5412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -5455,7 +5447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>166</v>
       </c>
@@ -5490,7 +5482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>166</v>
       </c>
@@ -5525,7 +5517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>166</v>
       </c>
@@ -5560,7 +5552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -5595,7 +5587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>174</v>
       </c>
@@ -5630,7 +5622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>174</v>
       </c>
@@ -5665,7 +5657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>176</v>
       </c>
@@ -5700,7 +5692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>231</v>
       </c>
@@ -5735,15 +5727,11 @@
         <v>26</v>
       </c>
       <c r="L102" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A102,"','",C102,"','",C102,"');")</f>
-        <v>insert into program(code, title, description) values ('DDNPRFSING01','EngD Professional Services','EngD Professional Services');</v>
-      </c>
-      <c r="M102" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F102,"','",G102,"','",G102,"',(select id from program where code='",A102,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('ENGSC_ENG','Faculty of Engineering Sciences','Faculty of Engineering Sciences',(select id from program where code='DDNPRFSING01'));</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A102,"','",C102,"');")</f>
+        <v>insert into program(code, title) values ('DDNPRFSING01','EngD Professional Services');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>182</v>
       </c>
@@ -5778,7 +5766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>182</v>
       </c>
@@ -5813,7 +5801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>182</v>
       </c>
@@ -5848,7 +5836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>182</v>
       </c>
@@ -5883,7 +5871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>184</v>
       </c>
@@ -5918,7 +5906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>184</v>
       </c>
@@ -5953,7 +5941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -5988,7 +5976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>188</v>
       </c>
@@ -6023,7 +6011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>188</v>
       </c>
@@ -6058,7 +6046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>188</v>
       </c>
@@ -7213,7 +7201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>96</v>
       </c>
@@ -7248,7 +7236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>96</v>
       </c>
@@ -7283,7 +7271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>196</v>
       </c>
@@ -7318,7 +7306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>196</v>
       </c>
@@ -7353,7 +7341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>200</v>
       </c>
@@ -7388,7 +7376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>200</v>
       </c>
@@ -7423,7 +7411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -7458,15 +7446,11 @@
         <v>26</v>
       </c>
       <c r="L151" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A151,"','",C151,"','",C151,"');")</f>
-        <v>insert into program(code, title, description) values ('DDNCIVSUSR09','EngD Urban Sustainability and Resilience','EngD Urban Sustainability and Resilience');</v>
-      </c>
-      <c r="M151" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F151,"','",G151,"','",G151,"',(select id from program where code='",A151,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('CIVLG_ENG','Civil, Environmental and Geomatic Engineering','Civil, Environmental and Geomatic Engineering',(select id from program where code='DDNCIVSUSR09'));</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A151,"','",C151,"');")</f>
+        <v>insert into program(code, title) values ('DDNCIVSUSR09','EngD Urban Sustainability and Resilience');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>202</v>
       </c>
@@ -7501,7 +7485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>202</v>
       </c>
@@ -7536,7 +7520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>202</v>
       </c>
@@ -7571,7 +7555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>202</v>
       </c>
@@ -7606,7 +7590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>150</v>
       </c>
@@ -7641,7 +7625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>206</v>
       </c>
@@ -7676,7 +7660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>206</v>
       </c>
@@ -7711,7 +7695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>206</v>
       </c>
@@ -7746,7 +7730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>208</v>
       </c>
@@ -7781,7 +7765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>70</v>
       </c>
@@ -7816,7 +7800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>70</v>
       </c>
@@ -7851,7 +7835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>138</v>
       </c>
@@ -7886,15 +7870,11 @@
         <v>26</v>
       </c>
       <c r="L163" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A163,"','",C163,"','",C163,"');")</f>
-        <v>insert into program(code, title, description) values ('DDNCOMSVEI09','EngD Virtual Environments, Imaging and Visualisation','EngD Virtual Environments, Imaging and Visualisation');</v>
-      </c>
-      <c r="M163" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F163,"','",G163,"','",G163,"',(select id from program where code='",A163,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('COMPS_ENG','Computer Science','Computer Science',(select id from program where code='DDNCOMSVEI09'));</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A163,"','",C163,"');")</f>
+        <v>insert into program(code, title) values ('DDNCOMSVEI09','EngD Virtual Environments, Imaging and Visualisation');</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>210</v>
       </c>
@@ -7929,7 +7909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>210</v>
       </c>
@@ -7964,7 +7944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>212</v>
       </c>
@@ -7999,7 +7979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -8034,7 +8014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>212</v>
       </c>
@@ -8069,7 +8049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>212</v>
       </c>
@@ -8104,7 +8084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>214</v>
       </c>
@@ -8139,7 +8119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>214</v>
       </c>
@@ -8174,7 +8154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>214</v>
       </c>
@@ -8209,7 +8189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>214</v>
       </c>
@@ -8244,7 +8224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>218</v>
       </c>
@@ -8279,7 +8259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>218</v>
       </c>
@@ -8314,7 +8294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>218</v>
       </c>
@@ -8349,7 +8329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>222</v>
       </c>
@@ -8384,7 +8364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>222</v>
       </c>
@@ -8419,7 +8399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>222</v>
       </c>
@@ -8454,7 +8434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>226</v>
       </c>
@@ -8489,7 +8469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>226</v>
       </c>
@@ -8524,7 +8504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -8559,7 +8539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>222</v>
       </c>
@@ -8594,7 +8574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>45</v>
       </c>
@@ -8629,7 +8609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>162</v>
       </c>
@@ -8664,7 +8644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -8699,7 +8679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>212</v>
       </c>
@@ -8734,7 +8714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>229</v>
       </c>
@@ -8769,7 +8749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>138</v>
       </c>
@@ -8804,7 +8784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>231</v>
       </c>
@@ -8839,7 +8819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>70</v>
       </c>
@@ -8874,15 +8854,11 @@
         <v>26</v>
       </c>
       <c r="L191" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A191,"','",C191,"','",C191,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDBENSING01','Research Degree:  Biochemical Engineering','Research Degree:  Biochemical Engineering');</v>
-      </c>
-      <c r="M191" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F191,"','",G191,"','",G191,"',(select id from program where code='",A191,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('BENGN_ENG','Biochemical Engineering','Biochemical Engineering',(select id from program where code='RRDBENSING01'));</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A191,"','",C191,"');")</f>
+        <v>insert into program(code, title) values ('RRDBENSING01','Research Degree:  Biochemical Engineering');</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>218</v>
       </c>
@@ -9477,7 +9453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>70</v>
       </c>
@@ -9512,7 +9488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>66</v>
       </c>
@@ -9547,15 +9523,11 @@
         <v>26</v>
       </c>
       <c r="L210" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A210,"','",C210,"','",C210,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDCENSING01','Research Degree:  Chemical Engineering','Research Degree:  Chemical Engineering');</v>
-      </c>
-      <c r="M210" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F210,"','",G210,"','",G210,"',(select id from program where code='",A210,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('CENGN_ENG','Chemical Engineering','Chemical Engineering',(select id from program where code='RRDCENSING01'));</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A210,"','",C210,"');")</f>
+        <v>insert into program(code, title) values ('RRDCENSING01','Research Degree:  Chemical Engineering');</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>178</v>
       </c>
@@ -9590,7 +9562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>74</v>
       </c>
@@ -9625,7 +9597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>252</v>
       </c>
@@ -9660,7 +9632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>256</v>
       </c>
@@ -9695,7 +9667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>116</v>
       </c>
@@ -9730,7 +9702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>124</v>
       </c>
@@ -9765,7 +9737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>260</v>
       </c>
@@ -9800,7 +9772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>66</v>
       </c>
@@ -9835,7 +9807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>266</v>
       </c>
@@ -9870,7 +9842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>266</v>
       </c>
@@ -9905,7 +9877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>236</v>
       </c>
@@ -9940,15 +9912,11 @@
         <v>26</v>
       </c>
       <c r="L221" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A221,"','",C221,"','",C221,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDCIVSGEO01','Research Degree:  Civil, Environmental and Geomatic Engineering','Research Degree:  Civil, Environmental and Geomatic Engineering');</v>
-      </c>
-      <c r="M221" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F221,"','",G221,"','",G221,"',(select id from program where code='",A221,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('CIVLG_ENG','Civil, Environmental and Geomatic Engineering','Civil, Environmental and Geomatic Engineering',(select id from program where code='RRDCIVSGEO01'));</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A221,"','",C221,"');")</f>
+        <v>insert into program(code, title) values ('RRDCIVSGEO01','Research Degree:  Civil, Environmental and Geomatic Engineering');</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>236</v>
       </c>
@@ -9983,7 +9951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>268</v>
       </c>
@@ -10018,7 +9986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>272</v>
       </c>
@@ -10613,7 +10581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>283</v>
       </c>
@@ -10648,7 +10616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>283</v>
       </c>
@@ -10683,7 +10651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>276</v>
       </c>
@@ -10718,7 +10686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>276</v>
       </c>
@@ -10753,7 +10721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>287</v>
       </c>
@@ -10788,7 +10756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>287</v>
       </c>
@@ -10823,7 +10791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>236</v>
       </c>
@@ -10858,7 +10826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>236</v>
       </c>
@@ -10893,7 +10861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>297</v>
       </c>
@@ -10928,7 +10896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>170</v>
       </c>
@@ -10963,7 +10931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>238</v>
       </c>
@@ -10998,15 +10966,11 @@
         <v>26</v>
       </c>
       <c r="L251" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A251,"','",C251,"','",C251,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDCOMSING01','Research Degree:  Computer Science','Research Degree:  Computer Science');</v>
-      </c>
-      <c r="M251" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F251,"','",G251,"','",G251,"',(select id from program where code='",A251,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('COMPS_ENG','Computer Science','Computer Science',(select id from program where code='RRDCOMSING01'));</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A251,"','",C251,"');")</f>
+        <v>insert into program(code, title) values ('RRDCOMSING01','Research Degree:  Computer Science');</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>226</v>
       </c>
@@ -11041,7 +11005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>299</v>
       </c>
@@ -11076,7 +11040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>301</v>
       </c>
@@ -11111,7 +11075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>45</v>
       </c>
@@ -11146,7 +11110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>45</v>
       </c>
@@ -12301,7 +12265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>60</v>
       </c>
@@ -12336,7 +12300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>60</v>
       </c>
@@ -12371,7 +12335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>238</v>
       </c>
@@ -12406,7 +12370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>309</v>
       </c>
@@ -12441,7 +12405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>309</v>
       </c>
@@ -12476,7 +12440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>264</v>
       </c>
@@ -12511,15 +12475,11 @@
         <v>26</v>
       </c>
       <c r="L294" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A294,"','",C294,"','",C294,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDEENSING01','Research Degree:  Electronic and Electrical Engineering','Research Degree:  Electronic and Electrical Engineering');</v>
-      </c>
-      <c r="M294" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F294,"','",G294,"','",G294,"',(select id from program where code='",A294,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('ELECN_ENG','Electronic and Electrical Engineering','Electronic and Electrical Engineering',(select id from program where code='RRDEENSING01'));</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A294,"','",C294,"');")</f>
+        <v>insert into program(code, title) values ('RRDEENSING01','Research Degree:  Electronic and Electrical Engineering');</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>264</v>
       </c>
@@ -12554,7 +12514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>311</v>
       </c>
@@ -12589,7 +12549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>311</v>
       </c>
@@ -12624,7 +12584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>315</v>
       </c>
@@ -12659,7 +12619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>264</v>
       </c>
@@ -12694,7 +12654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>264</v>
       </c>
@@ -12729,7 +12689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>384</v>
       </c>
@@ -12764,15 +12724,11 @@
         <v>26</v>
       </c>
       <c r="L301" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A301,"','",C301,"','",C301,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDMECSING01','Research Degree:  Mechanical Engineering','Research Degree:  Mechanical Engineering');</v>
-      </c>
-      <c r="M301" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F301,"','",G301,"','",G301,"',(select id from program where code='",A301,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('MECHN_ENG','Mechanical Engineering','Mechanical Engineering',(select id from program where code='RRDMECSING01'));</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A301,"','",C301,"');")</f>
+        <v>insert into program(code, title) values ('RRDMECSING01','Research Degree:  Mechanical Engineering');</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>260</v>
       </c>
@@ -12807,7 +12763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>317</v>
       </c>
@@ -12842,7 +12798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>317</v>
       </c>
@@ -14557,7 +14513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>378</v>
       </c>
@@ -14592,7 +14548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>378</v>
       </c>
@@ -14627,7 +14583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>378</v>
       </c>
@@ -14662,7 +14618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>378</v>
       </c>
@@ -14697,7 +14653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>39</v>
       </c>
@@ -14732,7 +14688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>200</v>
       </c>
@@ -14767,15 +14723,11 @@
         <v>26</v>
       </c>
       <c r="L358" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A358,"','",C358,"','",C358,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDMPHSING01','Research Degree:  Medical Physics','Research Degree:  Medical Physics');</v>
-      </c>
-      <c r="M358" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F358,"','",G358,"','",G358,"',(select id from program where code='",A358,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('MPHYS_ENG','Medical Physics and Bioengineering','Medical Physics and Bioengineering',(select id from program where code='RRDMPHSING01'));</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A358,"','",C358,"');")</f>
+        <v>insert into program(code, title) values ('RRDMPHSING01','Research Degree:  Medical Physics');</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>200</v>
       </c>
@@ -14810,7 +14762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>200</v>
       </c>
@@ -14845,7 +14797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>382</v>
       </c>
@@ -14880,7 +14832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>11</v>
       </c>
@@ -14915,7 +14867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>331</v>
       </c>
@@ -14950,7 +14902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>331</v>
       </c>
@@ -14985,7 +14937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>331</v>
       </c>
@@ -15020,7 +14972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>331</v>
       </c>
@@ -15055,7 +15007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>337</v>
       </c>
@@ -15090,7 +15042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>337</v>
       </c>
@@ -15685,7 +15637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>200</v>
       </c>
@@ -15720,7 +15672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>229</v>
       </c>
@@ -15755,15 +15707,11 @@
         <v>26</v>
       </c>
       <c r="L386" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A386,"','",C386,"','",C386,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDCOMSFNC01','Research Degree: Financial Computing','Research Degree: Financial Computing');</v>
-      </c>
-      <c r="M386" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F386,"','",G386,"','",G386,"',(select id from program where code='",A386,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('COMPS_ENG','Computer Science','Computer Science',(select id from program where code='RRDCOMSFNC01'));</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A386,"','",C386,"');")</f>
+        <v>insert into program(code, title) values ('RRDCOMSFNC01','Research Degree: Financial Computing');</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>280</v>
       </c>
@@ -15798,7 +15746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>280</v>
       </c>
@@ -15833,7 +15781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>280</v>
       </c>
@@ -15868,7 +15816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>248</v>
       </c>
@@ -15903,7 +15851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>248</v>
       </c>
@@ -15938,7 +15886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>248</v>
       </c>
@@ -15973,7 +15921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>388</v>
       </c>
@@ -16008,7 +15956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>268</v>
       </c>
@@ -16043,7 +15991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>268</v>
       </c>
@@ -16078,7 +16026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>268</v>
       </c>
@@ -16113,7 +16061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>341</v>
       </c>
@@ -16148,7 +16096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>341</v>
       </c>
@@ -16183,7 +16131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>341</v>
       </c>
@@ -16218,7 +16166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>341</v>
       </c>
@@ -17373,7 +17321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>283</v>
       </c>
@@ -17408,7 +17356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>283</v>
       </c>
@@ -17443,7 +17391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>283</v>
       </c>
@@ -17478,7 +17426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>276</v>
       </c>
@@ -17513,7 +17461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>276</v>
       </c>
@@ -17548,7 +17496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>276</v>
       </c>
@@ -17583,7 +17531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>315</v>
       </c>
@@ -17618,7 +17566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>315</v>
       </c>
@@ -17653,7 +17601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>238</v>
       </c>
@@ -17688,7 +17636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>238</v>
       </c>
@@ -17723,7 +17671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>293</v>
       </c>
@@ -17758,15 +17706,11 @@
         <v>26</v>
       </c>
       <c r="L443" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A443,"','",C443,"','",C443,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDMANSING01','Research Degree: Management Science and Innovation','Research Degree: Management Science and Innovation');</v>
-      </c>
-      <c r="M443" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F443,"','",G443,"','",G443,"',(select id from program where code='",A443,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('MANSC_ENG','Management Science and Innovation','Management Science and Innovation',(select id from program where code='RRDMANSING01'));</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A443,"','",C443,"');")</f>
+        <v>insert into program(code, title) values ('RRDMANSING01','Research Degree: Management Science and Innovation');</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>260</v>
       </c>
@@ -17801,7 +17745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>234</v>
       </c>
@@ -17836,7 +17780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>234</v>
       </c>
@@ -17871,7 +17815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>293</v>
       </c>
@@ -17906,7 +17850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>329</v>
       </c>
@@ -19061,7 +19005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>360</v>
       </c>
@@ -19096,7 +19040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>360</v>
       </c>
@@ -19131,7 +19075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>360</v>
       </c>
@@ -19166,7 +19110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>364</v>
       </c>
@@ -19201,7 +19145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>364</v>
       </c>
@@ -19236,7 +19180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>364</v>
       </c>
@@ -19271,7 +19215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>364</v>
       </c>
@@ -19306,7 +19250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>287</v>
       </c>
@@ -19341,7 +19285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>287</v>
       </c>
@@ -19376,7 +19320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>287</v>
       </c>
@@ -19411,7 +19355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>293</v>
       </c>
@@ -19446,7 +19390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>293</v>
       </c>
@@ -19481,7 +19425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>293</v>
       </c>
@@ -19516,7 +19460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>178</v>
       </c>
@@ -19551,15 +19495,11 @@
         <v>26</v>
       </c>
       <c r="L494" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A494,"','",C494,"','",C494,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDMBISING01','Research Degree: Medical and Biomedical Imaging','Research Degree: Medical and Biomedical Imaging');</v>
-      </c>
-      <c r="M494" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F494,"','",G494,"','",G494,"',(select id from program where code='",A494,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('MPHYS_ENG','Medical Physics and Bioengineering','Medical Physics and Bioengineering',(select id from program where code='RRDMBISING01'));</v>
-      </c>
-    </row>
-    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A494,"','",C494,"');")</f>
+        <v>insert into program(code, title) values ('RRDMBISING01','Research Degree: Medical and Biomedical Imaging');</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>397</v>
       </c>
@@ -19594,7 +19534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>368</v>
       </c>
@@ -20189,7 +20129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>408</v>
       </c>
@@ -20224,7 +20164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>397</v>
       </c>
@@ -20259,7 +20199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>397</v>
       </c>
@@ -20294,7 +20234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>134</v>
       </c>
@@ -20329,15 +20269,11 @@
         <v>26</v>
       </c>
       <c r="L516" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A516,"','",C516,"','",C516,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDEENSPHT01','Research Degree: Photonics Systems Development','Research Degree: Photonics Systems Development');</v>
-      </c>
-      <c r="M516" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F516,"','",G516,"','",G516,"',(select id from program where code='",A516,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('ELECN_ENG','Electronic and Electrical Engineering','Electronic and Electrical Engineering',(select id from program where code='RRDEENSPHT01'));</v>
-      </c>
-    </row>
-    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A516,"','",C516,"');")</f>
+        <v>insert into program(code, title) values ('RRDEENSPHT01','Research Degree: Photonics Systems Development');</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>378</v>
       </c>
@@ -20372,7 +20308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>378</v>
       </c>
@@ -20407,7 +20343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>134</v>
       </c>
@@ -20442,7 +20378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>266</v>
       </c>
@@ -20477,15 +20413,11 @@
         <v>26</v>
       </c>
       <c r="L520" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A520,"','",C520,"','",C520,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDSCSSING01','Research Degree: Security and Crime Science','Research Degree: Security and Crime Science');</v>
-      </c>
-      <c r="M520" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F520,"','",G520,"','",G520,"',(select id from program where code='",A520,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('SECUR_ENG','Security and Crime Science','Security and Crime Science',(select id from program where code='RRDSCSSING01'));</v>
-      </c>
-    </row>
-    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A520,"','",C520,"');")</f>
+        <v>insert into program(code, title) values ('RRDSCSSING01','Research Degree: Security and Crime Science');</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>280</v>
       </c>
@@ -20520,7 +20452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>280</v>
       </c>
@@ -20555,7 +20487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>98</v>
       </c>
@@ -20590,7 +20522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>98</v>
       </c>
@@ -20625,7 +20557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>266</v>
       </c>
@@ -20660,7 +20592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>266</v>
       </c>
@@ -20695,7 +20627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>206</v>
       </c>
@@ -20730,7 +20662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>206</v>
       </c>
@@ -21885,7 +21817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>33</v>
       </c>
@@ -21920,15 +21852,11 @@
         <v>26</v>
       </c>
       <c r="L561" t="str">
-        <f>CONCATENATE("insert into program(code, title, description) values ('",A561,"','",C561,"','",C561,"');")</f>
-        <v>insert into program(code, title, description) values ('RRDSECSING01','Research Degree: Security Science','Research Degree: Security Science');</v>
-      </c>
-      <c r="M561" t="str">
-        <f>CONCATENATE("insert into project(code, title, description, program_id) values ('",F561,"','",G561,"','",G561,"',(select id from program where code='",A561,"'));")</f>
-        <v>insert into project(code, title, description, program_id) values ('SECUR_ENG','Security and Crime Science','Security and Crime Science',(select id from program where code='RRDSECSING01'));</v>
-      </c>
-    </row>
-    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into program(code, title) values ('",A561,"','",C561,"');")</f>
+        <v>insert into program(code, title) values ('RRDSECSING01','Research Degree: Security Science');</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>33</v>
       </c>
@@ -21963,7 +21891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>218</v>
       </c>
@@ -21998,7 +21926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>218</v>
       </c>
@@ -22033,7 +21961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>222</v>
       </c>
@@ -22068,7 +21996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="566" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>222</v>
       </c>
@@ -22103,7 +22031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>50</v>
       </c>
@@ -22138,7 +22066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>50</v>
       </c>
@@ -22173,7 +22101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>86</v>
       </c>
@@ -22208,7 +22136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>86</v>
       </c>
@@ -22243,7 +22171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="571" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>92</v>
       </c>
@@ -22278,7 +22206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="572" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>166</v>
       </c>
@@ -22313,7 +22241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>166</v>
       </c>
@@ -22348,7 +22276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>194</v>
       </c>
@@ -22383,7 +22311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>194</v>
       </c>
@@ -22418,7 +22346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>78</v>
       </c>
